--- a/HyperparSearch.xlsx
+++ b/HyperparSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Learning rate</t>
   </si>
@@ -23,6 +23,66 @@
   </si>
   <si>
     <t>Memory</t>
+  </si>
+  <si>
+    <t>(106323462, 117880446)</t>
+  </si>
+  <si>
+    <t>(104184337, 115219502)</t>
+  </si>
+  <si>
+    <t>(101530862, 114956351)</t>
+  </si>
+  <si>
+    <t>(104352010, 114977451)</t>
+  </si>
+  <si>
+    <t>(108233654, 120188419)</t>
+  </si>
+  <si>
+    <t>(105872869, 114773846)</t>
+  </si>
+  <si>
+    <t>(103920895, 114955108)</t>
+  </si>
+  <si>
+    <t>(102481434, 114961691)</t>
+  </si>
+  <si>
+    <t>(110979243, 119827636)</t>
+  </si>
+  <si>
+    <t>(103895150, 115209503)</t>
+  </si>
+  <si>
+    <t>(102470249, 115331902)</t>
+  </si>
+  <si>
+    <t>(105350491, 114924396)</t>
+  </si>
+  <si>
+    <t>(108960421, 120540154)</t>
+  </si>
+  <si>
+    <t>(102442738, 115313199)</t>
+  </si>
+  <si>
+    <t>(105714963, 114563612)</t>
+  </si>
+  <si>
+    <t>(104245807, 115315820)</t>
+  </si>
+  <si>
+    <t>(108070814, 120199821)</t>
+  </si>
+  <si>
+    <t>(108738678, 114779319)</t>
+  </si>
+  <si>
+    <t>(104615674, 114704559)</t>
+  </si>
+  <si>
+    <t>(103053622, 114624655)</t>
   </si>
   <si>
     <t>Runtime</t>
@@ -386,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +480,350 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.001</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>205.1391110420227</v>
+      </c>
+      <c r="E3">
+        <v>66.40183974202453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.005</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4">
+        <v>197.2058391571045</v>
+      </c>
+      <c r="E4">
+        <v>66.40583974202454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>206.3931138515472</v>
+      </c>
+      <c r="E5">
+        <v>66.40283974202453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>214.1508979797363</v>
+      </c>
+      <c r="E6">
+        <v>66.4669363196446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>190.0697610378265</v>
+      </c>
+      <c r="E7">
+        <v>66.40183974202452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>0.001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>201.8625659942627</v>
+      </c>
+      <c r="E8">
+        <v>65.40883974202453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <v>0.005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>183.1387059688568</v>
+      </c>
+      <c r="E9">
+        <v>65.40683974202453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>213.8749260902405</v>
+      </c>
+      <c r="E10">
+        <v>66.46393631964455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>213.2427251338959</v>
+      </c>
+      <c r="E11">
+        <v>66.46293631964456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>193.6193292140961</v>
+      </c>
+      <c r="E12">
+        <v>66.40683974202454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13">
+        <v>0.001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>211.4559900760651</v>
+      </c>
+      <c r="E13">
+        <v>66.38783974202452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>0.005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>189.6315279006958</v>
+      </c>
+      <c r="E14">
+        <v>66.40683974202454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>195.5834498405457</v>
+      </c>
+      <c r="E15">
+        <v>66.40483974202452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>193.7065677642822</v>
+      </c>
+      <c r="E16">
+        <v>66.39883974202456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>213.6435539722443</v>
+      </c>
+      <c r="E17">
+        <v>58.77702884801414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>0.001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>204.1328580379486</v>
+      </c>
+      <c r="E18">
+        <v>65.3948397420245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <v>0.005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>204.561692237854</v>
+      </c>
+      <c r="E19">
+        <v>66.4028397420245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.8</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>184.0646739006042</v>
+      </c>
+      <c r="E20">
+        <v>66.40983974202454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>213.8548769950867</v>
+      </c>
+      <c r="E21">
+        <v>66.47293631964457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.8</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>214.1167209148407</v>
+      </c>
+      <c r="E22">
+        <v>57.78202884801412</v>
       </c>
     </row>
   </sheetData>

--- a/HyperparSearch.xlsx
+++ b/HyperparSearch.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tijmenkuijpers/Documents/GitHub/mars-rover/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B8274-EAE1-0B4D-8CC0-70C267EE5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="11380" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +164,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -469,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -486,41 +507,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>205.1391110420227</v>
+        <v>205.13911104202271</v>
       </c>
       <c r="E3">
-        <v>66.40183974202453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>66.401839742024535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>197.2058391571045</v>
+        <v>197.20583915710449</v>
       </c>
       <c r="E4">
         <v>66.40583974202454</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -531,13 +552,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>206.3931138515472</v>
+        <v>206.39311385154721</v>
       </c>
       <c r="E5">
-        <v>66.40283974202453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>66.402839742024526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -551,10 +572,10 @@
         <v>214.1508979797363</v>
       </c>
       <c r="E6">
-        <v>66.4669363196446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>66.466936319644603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.2</v>
       </c>
@@ -565,18 +586,18 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>190.0697610378265</v>
+        <v>190.06976103782651</v>
       </c>
       <c r="E7">
-        <v>66.40183974202452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>66.401839742024521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.4</v>
       </c>
       <c r="B8">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -585,27 +606,27 @@
         <v>201.8625659942627</v>
       </c>
       <c r="E8">
-        <v>65.40883974202453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>65.408839742024526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>183.1387059688568</v>
+        <v>183.13870596885681</v>
       </c>
       <c r="E9">
         <v>65.40683974202453</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -616,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>213.8749260902405</v>
+        <v>213.87492609024051</v>
       </c>
       <c r="E10">
-        <v>66.46393631964455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>66.463936319644546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -636,10 +657,10 @@
         <v>213.2427251338959</v>
       </c>
       <c r="E11">
-        <v>66.46293631964456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>66.462936319644555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -653,32 +674,32 @@
         <v>193.6193292140961</v>
       </c>
       <c r="E12">
-        <v>66.40683974202454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>66.406839742024545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.6</v>
       </c>
       <c r="B13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>211.4559900760651</v>
+        <v>211.45599007606509</v>
       </c>
       <c r="E13">
-        <v>66.38783974202452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>66.387839742024525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.6</v>
       </c>
       <c r="B14">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -687,10 +708,10 @@
         <v>189.6315279006958</v>
       </c>
       <c r="E14">
-        <v>66.40683974202454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>66.406839742024545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.6</v>
       </c>
@@ -701,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>195.5834498405457</v>
+        <v>195.58344984054571</v>
       </c>
       <c r="E15">
-        <v>66.40483974202452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>66.404839742024521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.6</v>
       </c>
@@ -721,10 +742,10 @@
         <v>193.7065677642822</v>
       </c>
       <c r="E16">
-        <v>66.39883974202456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>66.398839742024563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.6</v>
       </c>
@@ -735,35 +756,35 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>213.6435539722443</v>
+        <v>213.64355397224429</v>
       </c>
       <c r="E17">
         <v>58.77702884801414</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.8</v>
       </c>
       <c r="B18">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>204.1328580379486</v>
+        <v>204.13285803794861</v>
       </c>
       <c r="E18">
-        <v>65.3948397420245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>65.394839742024502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.8</v>
       </c>
       <c r="B19">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -772,10 +793,10 @@
         <v>204.561692237854</v>
       </c>
       <c r="E19">
-        <v>66.4028397420245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>66.402839742024497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.8</v>
       </c>
@@ -786,13 +807,13 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>184.0646739006042</v>
+        <v>184.06467390060419</v>
       </c>
       <c r="E20">
-        <v>66.40983974202454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>66.409839742024545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.8</v>
       </c>
@@ -806,10 +827,10 @@
         <v>213.8548769950867</v>
       </c>
       <c r="E21">
-        <v>66.47293631964457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>66.472936319644575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.8</v>
       </c>
@@ -823,7 +844,7 @@
         <v>214.1167209148407</v>
       </c>
       <c r="E22">
-        <v>57.78202884801412</v>
+        <v>57.782028848014122</v>
       </c>
     </row>
   </sheetData>
